--- a/experiment result/64_0.2_40_zs10_kappa_lp.xlsx
+++ b/experiment result/64_0.2_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07965648257910599</v>
+        <v>0.02589052006733591</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08620185271625938</v>
+        <v>0.007233235936221122</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09612841779806118</v>
+        <v>0.009764353698628093</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08358147952928507</v>
+        <v>0.03380428586795099</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.066584670882264</v>
+        <v>0.008978805299942357</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09753917421384688</v>
+        <v>0.03321759375604798</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08871730418563625</v>
+        <v>0.005571212044371946</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0816017413298457</v>
+        <v>0.02933599708486771</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07881697589375147</v>
+        <v>0.033747389585883</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08711028975730103</v>
+        <v>0.02977223658533577</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1253669638750458</v>
+        <v>0.04329283807883723</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1359043215688028</v>
+        <v>0.07072748607746486</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09591998087998038</v>
+        <v>0.00781973741758937</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1715244768099187</v>
+        <v>0.01843567696873832</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.09330959801035399</v>
+        <v>0.01289285583013484</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07836370922387553</v>
+        <v>0.006770738462139628</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1158017553468337</v>
+        <v>0.03188745562892847</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07780727172647715</v>
+        <v>0.001530686553111145</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08820458156550967</v>
+        <v>0.03022858796496657</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1029668936496155</v>
+        <v>0.01627433864052389</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08805962240912253</v>
+        <v>0.01142973020680921</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08200628802088029</v>
+        <v>0.008140938078339443</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09135051305119612</v>
+        <v>0.01962522383774512</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05348049599714174</v>
+        <v>0.00828123922896099</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06148038468146</v>
+        <v>0.00589236335033669</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1248433187751809</v>
+        <v>0.05502533814996885</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07936555340568069</v>
+        <v>0.02245556069896858</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06228242705440261</v>
+        <v>0.04155085169721457</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1040698460510463</v>
+        <v>0.04503239824055326</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1018231376461082</v>
+        <v>0.026715582211424</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03632474605297335</v>
+        <v>0.001689674514384451</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.07339565719534885</v>
+        <v>0.001744315673687876</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1329138736901576</v>
+        <v>0.02657754807594345</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06523659267803997</v>
+        <v>0.002918354295163499</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.06812326509704256</v>
+        <v>0.01659593917182469</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.102372085994265</v>
+        <v>0.02273047508535501</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06254624567403005</v>
+        <v>0.002572856002953713</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1014772176702155</v>
+        <v>0.01004626022307942</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06191639180330549</v>
+        <v>0.02659316200195424</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09468895859834463</v>
+        <v>0.04229756430468199</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1094343712100341</v>
+        <v>0.07373808461749068</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06550894516247967</v>
+        <v>0.02100014103263308</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.05112177906565762</v>
+        <v>0.02828012819248689</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.05224833283271876</v>
+        <v>0.00470150228723947</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07504382680137135</v>
+        <v>0.01264446250601302</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1045995032609541</v>
+        <v>0.01186256294206902</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1137704297054153</v>
+        <v>0.05025984461125688</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07201102236451487</v>
+        <v>0.002422409839769847</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1139409130070712</v>
+        <v>0.03064026316478217</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.07664755107325177</v>
+        <v>0.001766508565527254</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.08389693296145566</v>
+        <v>0.025333447668072</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0912375912295281</v>
+        <v>0.02101736698707157</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.05178563131810961</v>
+        <v>8.46407537720616e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06050780744077271</v>
+        <v>0.002467020459371858</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1140777152893648</v>
+        <v>0.02097817405525288</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.07851583796529545</v>
+        <v>0.02463580153442908</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08772747698305805</v>
+        <v>0.01063964633362655</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09804409978456038</v>
+        <v>0.01481602299048614</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1340504473416576</v>
+        <v>0.04053075511886211</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09333757971075904</v>
+        <v>0.002588334977711702</v>
       </c>
     </row>
   </sheetData>
